--- a/大屏展示功能/展示数据类型收集.xlsx
+++ b/大屏展示功能/展示数据类型收集.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,656 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>户外营地开业和接入比例</t>
+    <t>总体</t>
+    <rPh sb="0" eb="1">
+      <t>ukw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <rPh sb="0" eb="1">
+      <t>etyn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各校区签到率</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>twg</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各校区课程数和学生数对比</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sua</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yjt</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>t</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>iptg</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cfx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件</t>
+    <rPh sb="0" eb="1">
+      <t>dgwr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各城市硬件数</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fdy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各城市的硬件在线离线占比</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fdy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dhx</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ybx</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hkx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各城市硬件占比</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fdy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hkx</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各城市硬件打卡数</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fdy</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>rshh</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上显示</t>
+    <rPh sb="0" eb="1">
+      <t>fbl</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jof</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形图</t>
+    <rPh sb="0" eb="1">
+      <t>tsg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ltu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符显示</t>
+    <rPh sb="0" eb="1">
+      <t>pbt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jof</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆线图</t>
+    <rPh sb="0" eb="1">
+      <t>rrxg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ltu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图</t>
+    <rPh sb="0" eb="1">
+      <t>syud</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ltu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼图</t>
+    <rPh sb="0" eb="1">
+      <t>qnu</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ltu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <rPh sb="0" eb="1">
+      <t>ovr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从属模块</t>
+    <rPh sb="0" eb="1">
+      <t>wwnt</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>saf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示方式</t>
+    <rPh sb="0" eb="1">
+      <t>naf</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yya</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日24点</t>
+    <rPh sb="0" eb="1">
+      <t>txjj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>hko</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图上显示，以地图光点显示，打卡数越多，对应的光点越明亮，光点半径越大。</t>
+    <rPh sb="0" eb="1">
+      <t>fbl</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>h</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jof</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>nyw</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fbl</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>iq</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hko</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jof</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>rshh</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fhqq</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>cfy</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>r</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>iq</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>hko</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fhgo</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>jey</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>iqh</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>uft</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>fhgo</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>dd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动更新时间</t>
+    <rPh sb="0" eb="1">
+      <t>thf</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jfu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接入商户数</t>
+    <rPh sb="0" eb="1">
+      <t>rut</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>umyn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团内外要有区分。</t>
+    <rPh sb="0" eb="1">
+      <t>wyl</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>mwq</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>s</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>e</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>aqw</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <rPh sb="0" eb="1">
+      <t>tliy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册用户数</t>
+    <rPh sb="0" eb="1">
+      <t>iymm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级数量</t>
+    <rPh sb="0" eb="1">
+      <t>gyxe</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ovj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各商户营业额完成度</t>
+    <rPh sb="0" eb="1">
+      <t>tk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>umyn</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>apo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ptkm</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pfd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yac</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全日制学校师生数</t>
+    <rPh sb="0" eb="1">
+      <t>wgj</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rmhj</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ipsu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外营地师生数</t>
+    <rPh sb="0" eb="1">
+      <t>ynq</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>jgt</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区营地师生数</t>
+    <rPh sb="0" eb="1">
+      <t>pya</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望可以按照地点进行展示。</t>
+    <rPh sb="0" eb="1">
+      <t>qdyn</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>skn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>rpjv</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fbh</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fjtf</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>naf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论点赞数</t>
+    <rPh sb="0" eb="1">
+      <t>ygyw</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hko</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tfqm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业下发数</t>
+    <rPh sb="0" eb="1">
+      <t>wto</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ghnt</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师中心登录次数的城市排行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师中心30天累计登录次数&amp;人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据更新周期</t>
+    <rPh sb="0" eb="1">
+      <t>ovr</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gju</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>mfa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <rPh sb="0" eb="1">
+      <t>gd</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <rPh sb="0" eb="1">
+      <t>tit</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>eee</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <rPh sb="0" eb="1">
+      <t>wv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <rPh sb="0" eb="1">
+      <t>jf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交订单数</t>
+    <rPh sb="0" eb="1">
+      <t>dnuq</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ysuj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当天的成交订单</t>
+    <rPh sb="0" eb="1">
+      <t>ivg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dnuq</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ysuj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格</t>
+    <rPh sb="0" eb="1">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>stk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时</t>
+    <rPh sb="0" eb="1">
+      <t>pujf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生APP活跃数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售数据不展示。</t>
+    <rPh sb="0" eb="1">
+      <t>qiwy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ovr</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>naf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前计划中没有展示。</t>
+    <rPh sb="0" eb="1">
+      <t>ivu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yfaj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>imde</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>naf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <rPh sb="0" eb="1">
+      <t>tiq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户外营地开业和接入数量</t>
     <rPh sb="0" eb="1">
       <t>ynq</t>
     </rPh>
@@ -203,12 +852,12 @@
       <t>rut</t>
     </rPh>
     <rPh sb="9" eb="10">
-      <t>xxwg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全日制学校开业和接入比例</t>
+      <t>ovj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全日制学校开业和接入数量</t>
     <rPh sb="0" eb="1">
       <t>wgj</t>
     </rPh>
@@ -227,13 +876,10 @@
     <rPh sb="8" eb="9">
       <t>rut</t>
     </rPh>
-    <rPh sb="10" eb="11">
-      <t>xxwg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区营地开业和接入比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区营地开业和接入数量</t>
     <rPh sb="0" eb="1">
       <t>pya</t>
     </rPh>
@@ -248,658 +894,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>rut</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xxwg</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总体</t>
-    <rPh sb="0" eb="1">
-      <t>ukw</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户</t>
-    <rPh sb="0" eb="1">
-      <t>etyn</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各校区签到率</t>
-    <rPh sb="0" eb="1">
-      <t>tk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>sua</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>twg</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>yx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各校区课程数和学生数对比</t>
-    <rPh sb="0" eb="1">
-      <t>tk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>sua</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>yjt</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ovt</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>t</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>iptg</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ovt</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>cfx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件</t>
-    <rPh sb="0" eb="1">
-      <t>dgwr</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各城市硬件数</t>
-    <rPh sb="0" eb="1">
-      <t>tk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fdy</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dgwr</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各城市的硬件在线离线占比</t>
-    <rPh sb="0" eb="1">
-      <t>tk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fdy</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>r</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dgwr</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dhx</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ybx</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>hkx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各城市硬件占比</t>
-    <rPh sb="0" eb="1">
-      <t>tk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fdy</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dgwr</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hkx</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各城市硬件打卡数</t>
-    <rPh sb="0" eb="1">
-      <t>tk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>fdy</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dgwr</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>rshh</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图上显示</t>
-    <rPh sb="0" eb="1">
-      <t>fbl</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>h</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jof</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形图</t>
-    <rPh sb="0" eb="1">
-      <t>tsg</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ltu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符显示</t>
-    <rPh sb="0" eb="1">
-      <t>pbt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>jof</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆线图</t>
-    <rPh sb="0" eb="1">
-      <t>rrxg</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ltu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱状图</t>
-    <rPh sb="0" eb="1">
-      <t>syud</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ltu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饼图</t>
-    <rPh sb="0" eb="1">
-      <t>qnu</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ltu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <rPh sb="0" eb="1">
-      <t>ovr</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从属模块</t>
-    <rPh sb="0" eb="1">
-      <t>wwnt</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>saf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示方式</t>
-    <rPh sb="0" eb="1">
-      <t>naf</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yya</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日24点</t>
-    <rPh sb="0" eb="1">
-      <t>txjj</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>hko</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图上显示，以地图光点显示，打卡数越多，对应的光点越明亮，光点半径越大。</t>
-    <rPh sb="0" eb="1">
-      <t>fbl</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>h</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>jof</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>nyw</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fbl</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>iq</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>hko</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>jof</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>rshh</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ovt</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>fhqq</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>cfy</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>r</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>iq</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>hko</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>fhgo</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>jey</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>iqh</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>uft</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>fhgo</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>dd</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动更新时间</t>
-    <rPh sb="0" eb="1">
-      <t>thf</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jfu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接入商户数</t>
-    <rPh sb="0" eb="1">
-      <t>rut</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>umyn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集团内外要有区分。</t>
-    <rPh sb="0" eb="1">
-      <t>wyl</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>mwq</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>s</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>e</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>aqw</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <rPh sb="0" eb="1">
-      <t>tliy</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册用户数</t>
-    <rPh sb="0" eb="1">
-      <t>iymm</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>etyn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级数量</t>
-    <rPh sb="0" eb="1">
-      <t>gyxe</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ovj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各商户营业额完成度</t>
-    <rPh sb="0" eb="1">
-      <t>tk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>umyn</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>apo</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ptkm</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>pfd</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yac</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全日制学校师生数</t>
-    <rPh sb="0" eb="1">
-      <t>wgj</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>rmhj</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ipsu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>户外营地师生数</t>
-    <rPh sb="0" eb="1">
-      <t>ynq</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>apf</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jgt</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区营地师生数</t>
-    <rPh sb="0" eb="1">
-      <t>pya</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>apf</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望可以按照地点进行展示。</t>
-    <rPh sb="0" eb="1">
-      <t>qdyn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>skn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>rpjv</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fbh</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fjtf</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>naf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评论点赞数</t>
-    <rPh sb="0" eb="1">
-      <t>ygyw</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hko</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>tfqm</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业下发数</t>
-    <rPh sb="0" eb="1">
-      <t>wto</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ghnt</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师中心登录次数的城市排行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师中心30天累计登录次数&amp;人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据更新周期</t>
-    <rPh sb="0" eb="1">
-      <t>ovr</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>gju</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>mfa</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <rPh sb="0" eb="1">
-      <t>gd</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <rPh sb="0" eb="1">
-      <t>tit</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t>eee</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分</t>
-    <rPh sb="0" eb="1">
-      <t>wv</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时</t>
-    <rPh sb="0" eb="1">
-      <t>jf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交订单数</t>
-    <rPh sb="0" eb="1">
-      <t>dnuq</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ysuj</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ovt</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当天的成交订单</t>
-    <rPh sb="0" eb="1">
-      <t>ivg</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>r</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>dnuq</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ysuj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格</t>
-    <rPh sb="0" eb="1">
-      <t>ge</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>stk</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时</t>
-    <rPh sb="0" eb="1">
-      <t>pujf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生APP活跃数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售数据不展示。</t>
-    <rPh sb="0" eb="1">
-      <t>qiwy</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ovr</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>naf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前计划中没有展示。</t>
-    <rPh sb="0" eb="1">
-      <t>ivu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yfaj</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kh</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>imde</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>naf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <rPh sb="0" eb="1">
-      <t>tiq</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1394,7 +1388,7 @@
   <dimension ref="B2:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,122 +1404,122 @@
   <sheetData>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
       <c r="C8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -1536,16 +1530,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
@@ -1554,16 +1548,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
@@ -1572,16 +1566,16 @@
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
@@ -1590,62 +1584,62 @@
         <v>4</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="13"/>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
@@ -1654,14 +1648,14 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -1670,16 +1664,16 @@
         <v>6</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -1688,16 +1682,16 @@
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -1706,14 +1700,14 @@
         <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -1722,14 +1716,14 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -1737,231 +1731,231 @@
         <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
       <c r="C22" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
       <c r="C23" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="14"/>
       <c r="C27" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="14"/>
       <c r="C29" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="14"/>
       <c r="C30" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="14"/>
       <c r="C31" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="14"/>
       <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="14"/>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B35" s="14"/>
       <c r="C35" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/大屏展示功能/展示数据类型收集.xlsx
+++ b/大屏展示功能/展示数据类型收集.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="116">
   <si>
     <t>销售系统</t>
     <rPh sb="0" eb="1">
@@ -407,28 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>希望可以按照地点进行展示。</t>
-    <rPh sb="0" eb="1">
-      <t>qdyn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>skn</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>rpjv</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fbh</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fjtf</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>naf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评论点赞数</t>
     <rPh sb="0" eb="1">
       <t>ygyw</t>
@@ -485,22 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售数据不展示。</t>
-    <rPh sb="0" eb="1">
-      <t>qiwy</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ovr</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>gi</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>naf</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前计划中没有展示。</t>
     <rPh sb="0" eb="1">
       <t>ivu</t>
@@ -617,46 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>统计今日0点开始到当前的成交订单单数总和。</t>
-    <rPh sb="0" eb="1">
-      <t>xyy</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wyj</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>hko</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>gav</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>gc</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ivu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>r</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>dnuq</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ysuj</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ujo</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>uknu</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>t</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在销售系统当中已经注册具备付款能力的用户总数。</t>
     <rPh sb="0" eb="1">
       <t>d</t>
@@ -916,10 +838,6 @@
     <rPh sb="6" eb="7">
       <t>ovt</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——————</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2239,15 +2157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   a*单校区订单成交/所有订单
-+b*单校区考勤数/所有考勤数
-+c*单校区动态下发数/今日所有动态下发数</t>
-    <rPh sb="49" eb="50">
-      <t>e</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生中心登录次数</t>
     <rPh sb="0" eb="1">
       <t>iptg</t>
@@ -2331,6 +2240,275 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>qquq</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <rPh sb="0" eb="1">
+      <t>gqg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校区数</t>
+    <rPh sb="0" eb="1">
+      <t>sua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ovt</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中没有校区数可以通过手动录入数据。</t>
+    <rPh sb="0" eb="1">
+      <t>txx</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>imde</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ovt</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>skn</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>cef</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>rtfc</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>vit</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ovr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅沙教育已经开通的所有校区，包含接入梅沙系统和没有接入梅沙系统的户外营地、全日制学校、社区营地求和。</t>
+    <rPh sb="0" eb="1">
+      <t>stx</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>iit</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fty</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nnx</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gac</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>r</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>rnd</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>sua</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>qnwy</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>rut</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>stx</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>iit</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>txx</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>t</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>imde</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>rut</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>stx</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>iit</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>txx</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>r</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ynq</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>wgj</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>rmhj</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ipsu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>pya</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>apf</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>fiy</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体的销售数据不展示。</t>
+    <rPh sb="0" eb="1">
+      <t>hwws</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>r</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qiwy</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ovr</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>naf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>————————</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计今日0点开始到当前的成交订单单数总和。包含订单的：用户、课程名、地点、商户、时间等信息。</t>
+    <rPh sb="0" eb="1">
+      <t>xyy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wyj</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hko</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gav</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gc</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ivu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>r</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>dnuq</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ysuj</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ujo</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>uknu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>t</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>qnwy</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ysuj</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>r</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yjt</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>qk</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>fbh</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>umyn</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jfu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>tffu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>wyth</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个省份的累计销售额/总销售额</t>
+    <rPh sb="0" eb="1">
+      <t>ujw</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>itww</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>r</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lxy</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qiwy</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ptkm</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ukn</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>qwp</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2407,7 +2585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2422,13 +2600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2542,17 +2714,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2562,9 +2723,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2576,6 +2734,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2863,21 +3035,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H56"/>
+  <dimension ref="B2:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="74.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.2">
@@ -2888,7 +3060,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>22</v>
@@ -2901,14 +3073,14 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="36" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>99</v>
+      <c r="B3" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>15</v>
@@ -2917,40 +3089,43 @@
         <v>23</v>
       </c>
       <c r="G3" s="8"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="12"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B5" s="12"/>
-      <c r="C5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>81</v>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B5" s="21"/>
+      <c r="C5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="12"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
@@ -2959,12 +3134,12 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="12"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
@@ -2973,321 +3148,329 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="12"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="19" t="s">
-        <v>58</v>
+      <c r="B10" s="21"/>
+      <c r="C10" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:8" ht="54" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="19" t="s">
-        <v>74</v>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="21"/>
+      <c r="C11" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="12"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="21"/>
+      <c r="C12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="21"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D15" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="21"/>
+      <c r="C16" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="21"/>
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="21"/>
+      <c r="C18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="21"/>
+      <c r="C19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="21"/>
+      <c r="C20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="2:8" ht="36" x14ac:dyDescent="0.2">
+      <c r="B21" s="21"/>
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="21"/>
+      <c r="C23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="12"/>
-      <c r="C15" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
-      <c r="C20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>44</v>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="21"/>
+      <c r="C25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
-      <c r="C25" s="17" t="s">
+      <c r="D25" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="21"/>
+      <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
-      <c r="C26" s="7" t="s">
+      <c r="D26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="21"/>
+      <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
-      <c r="C27" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="D27" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>75</v>
+      <c r="B28" s="22"/>
+      <c r="C28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="8"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="18"/>
+      <c r="B29" s="19" t="s">
+        <v>104</v>
+      </c>
       <c r="C29" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7" t="s">
@@ -3296,12 +3479,12 @@
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="18"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
@@ -3310,362 +3493,409 @@
       <c r="G30" s="8"/>
     </row>
     <row r="31" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="18"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="G31" s="8"/>
     </row>
     <row r="32" spans="2:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B33" s="18"/>
+    <row r="33" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
       <c r="C33" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+    <row r="34" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="19"/>
+      <c r="C34" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
-      <c r="C35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>87</v>
-      </c>
+    <row r="35" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="19"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="19"/>
       <c r="C36" s="7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B37" s="18"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B37" s="19"/>
       <c r="C37" s="7" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B38" s="18"/>
+      <c r="F37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B38" s="19"/>
       <c r="C38" s="7" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B39" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B39" s="19"/>
       <c r="C39" s="7" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B40" s="19"/>
+      <c r="C40" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="54" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
-      <c r="C40" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D40" s="7" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
       <c r="G40" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="54" x14ac:dyDescent="0.2">
+      <c r="B41" s="19"/>
       <c r="C41" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B42" s="18"/>
-      <c r="C42" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B42" s="19"/>
+      <c r="C42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B43" s="19"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" s="19"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="19"/>
+      <c r="C45" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21" t="s">
+      <c r="D45" s="15"/>
+      <c r="E45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="21"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B43" s="18" t="s">
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+    </row>
+    <row r="46" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B46" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="18"/>
-      <c r="C44" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B45" s="18"/>
-      <c r="C45" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B46" s="18"/>
       <c r="C46" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="19"/>
       <c r="C47" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B48" s="19"/>
       <c r="C48" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B49" s="19"/>
       <c r="C49" s="7" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="18"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" s="19"/>
       <c r="C50" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" s="19"/>
       <c r="C51" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
+      <c r="H51" s="18"/>
+    </row>
+    <row r="52" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B52" s="19"/>
       <c r="C52" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B53" s="19"/>
       <c r="C53" s="7" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="C54" s="21" t="s">
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B54" s="19"/>
+      <c r="C54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="8"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="19"/>
+      <c r="C55" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B56" s="19"/>
+      <c r="C56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B57" s="19"/>
+      <c r="C57" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21" t="s">
+      <c r="D57" s="15"/>
+      <c r="E57" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
-      <c r="C55" s="21" t="s">
+      <c r="F57" s="15"/>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B58" s="19"/>
+      <c r="C58" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21" t="s">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="2:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
-      <c r="C56" s="7" t="s">
+      <c r="F58" s="15"/>
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="B59" s="19"/>
+      <c r="C59" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" s="8"/>
+      <c r="D59" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G59" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B43:B56"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="B29:B45"/>
+    <mergeCell ref="B46:B59"/>
+    <mergeCell ref="B3:B14"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="B15:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
